--- a/500all/speech_level/speeches_CHRG-114hhrg98688.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98688.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Good afternoon. This hearing will come to order.    I want to welcome everyone to today's hearing entitled ``Lack of Oversight of Interagency Agreements--VA Procurement Failures Continued.'' This hearing will examine serious problems with VA's use of interagency agreements to procure certain services and will also focus on Federally Funded Research and Development Centers, which we will refer to as FFRDCs for ease of reference.    Interagency agreements, in this case where other agencies may contract or perform services for VA, can be a proficient procurement method. However, these acquisitions may pose a variety of risks in part because of the need for stronger internal controls and clear definitions of agency roles and responsibilities. As we see today, and we have seen from VA for years, internal controls, management, and oversight are tremendous problems for VA.    Additionally, VA has relationships with FFRDCs, privately owned but government-funded entities that have long-term relationships with Federal agencies intended to meet special long-term research or development needs that cannot be met as effectively by existing in-house or contractor resources. FFRDCs are granted special access beyond that which is common for normal contractual relationships to government and supplier data.    Following an investigation of these issues begun last Congress, I asked GAO to look into VA's oversight and management of these relationships. Unfortunately, what GAO found is typical regarding data reliability within VA.    For instance, VA cannot account for the extent to which it utilized interagency agreements for fiscal year 2012 through fiscal year 2014. For this period, VA had data showing that it obligated at least $1.7 billion for this period, when in fact GAO found that this amount was actually between $2.6 billion and $2.9 billion, amounting to a $600 million to $900 million inconsistency.    Further, half of the interagency agreements GAO reviewed did not contain necessary documentation, which is another of the many instances where VA's poor oversight and management of its procurement processes leaves the Department open to rampant waste, potential fraud, and certain abuse.    Similarly, VA obligated $260 million in this same fiscal year 2012 through fiscal year 2014 period to FFRDCs.    One downfall with FFRDCs is that they are noncompetitive, as is evidenced by the fact that nearly all of VA's relationships with them are with those operated by one corporation.    Additional, shortfalls GAO found with VA's data include a failure to centrally track some contract actions, limited documentation of pre-award reviews, and in some cases contract files that did not indicate why VA determined a contract price was acceptable.    This hearing will highlight yet another set of contracting problems within VA, where hundreds of millions, if not billions of dollars are unaccounted for. In a time where VA has come back to Congress to ask for an additional $3 billion because it has run out of money it should have to serve veterans, I consider this another grave failure.    I look forward to the discussions we will have here today on this important issue.    With that, I now yield to Ranking Member Kuster for any opening remarks she may have.    [The prepared statement of Chairman Mike Coffman appears in the Appendix]</t>
   </si>
   <si>
     <t>412557</t>
   </si>
   <si>
-    <t>Ann M. Kuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you, Chairman Coffman, for holding this hearing.    And thank you to our witnesses for joining us here today.    We are here yet again to address VA's longstanding procurement problems. Today it is interagency agreements and Federally Funded Research and Development Centers, the FFRDCs that the chair has spoken about, and the VA's inability to oversee and properly manage these agreements and contracts.    VA has known from at least 2009, when the first IG report came out, that these interagency agreements were not being properly documented in VA's contract management system. In 2014, a second IG report found VA has the same problem, incomplete and inaccurate documentation.    The first report should have been a wake-up call. The second report was certainly a distress signal. And GAO's most recent report shows that little has been done to address these issues, and in some cases unclear guidance has caused greater confusion and contributed to additional reporting inaccuracies. VA's procurement organization and business practices need serious reform now.    Tomorrow our committee will address VHA's almost $3 billion budget shortfall. Like many of the other problems VA faces, and like most of the issues we address here in this committee, this is the direct result of VA's inability to accurately report and use data.    If VA had accurate data, it wouldn't be here today explaining why it doesn't have clear processes in place to ensure it is accurately managing its interagency agreements. If VA had accurate data, we wouldn't be here having questioning why MITRE Corporation has been awarded contracts instead of commercial contractors. And if VA had accurate data, it would be able to plan and request a budget that would meet the needs of our veterans and we wouldn't be holding a hearing tomorrow on the budget shortfall.    I'd like to know from our VA witnesses why it is so difficult for VA to accurately manage its contracts and agreements. VA has promised us a solution earlier this summer to manage procurement and ensure accurate data reporting, and I'd like to know when we will have this solution.    Finally, I'd like to know why VA has not used the tools it has at its disposal to hold employees accountable for not accurately documenting these transactions or acting to address these numerous IG and GAO reports. I'm more convinced than ever that major reforms are needed across VA to accurately manage procurement. VA needs an agency-wide transformation to bring its business practices into the 21st century to meet the needs of our well-deserving veterans.    Thank you, Mr. Chairman, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Heard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heard. Good afternoon, Chairman Coffman, Ranking Member Kuster, and members of the subcommittee. I appreciate the opportunity to discuss the Department's use of interagency agreements and Federally Funded Research and Development Centers, FFRDCs. I'm joined today by Michele Foster, Associate Executive Director, Technology Acquisition Center, and David Orso, Executive Director, Office of Policy and Planning, Enterprise Program Management Office.    The Department of Veterans Affairs relies on both internal and external contract vehicles to meet its mission of providing the very best goods and services for our Nation's veterans. As the recently published GAO report explains, the VA will utilize interagency agreements or Federally Funded Research and Development Center support when appropriate to meet these aforementioned needs.    Interagency agreements for the purpose of the GAO review centered around assisted acquisitions. Assisted acquisitions are those where an agency requests the acquisition services of another to satisfy its schedule, performance, and delivery requirements in a manner that is cost effective.    FFRDCs, the second focus of the GAO review, are independent nonprofit entities sponsored and funded primarily by the United States government to meet specific long-term technical needs that cannot appropriately be met by any for-profit commercial organization. FFRDCs are managed by a nonprofit parent organization in accordance with statute and regulation.    The long-term strategic relationship between the government and an FFRDC is encouraged to enable the FFRDC to develop and maintain in-depth knowledge of its sponsored programs and operations. VA cosponsors an FFRDC with the Internal Revenue Service through MITRE Corporation, which has five core competencies: Strategic management, procurement support and evaluations, program and project management, technical management, and independent evaluation and audit.    To ensure proper management and oversight of our use of the FFRDC, VA established an enterprise-wide executive-level governance structure. The FFRDC Governance Plan provides guidelines and procedures for ensuring compliance with the FAR and applies to all administrations and staff offices within the VA that seek to use the services of an FFRDC.    As it relates to the GAO report recommendations, five distinct areas were highlighted for VA's consideration. Specifically, GAO recommended VA revise its policies to improve the recording of interagency transaction data and to ensure interagency training reaches the full range of program and contracting officials. We concur on both of these recommendations and are currently in the process of revising our current financial and procurement policy to more clearly address recording procedures, as well as developing a robust training program designed to mitigate gaps in compliance with interagency procurement policy.    In addressing FFRDCs, GAO substantially validated the VA's administrative processes and overall utilization of MITRE Corporation. However, they did present three recommendations that they believe would provide consistency throughout VA. GAO recommended VA develop a strategy to ensure Department-wide adherence to the Governance Plan, improving support file documentation, and reassessing its approach towards travel costs. We concur on all three recommendations.    As previously stated, VA concurs with the recommendation offered by GAO. We've already begun to execute corrective action and believe that they will sufficiently address the GAO's suggestions.    Mr. Chairman and members of the committee, this concludes my oral statement. Thank you for the opportunity to testify before the committee. My colleagues and I would be happy to respond to any questions that you may have.    [The prepared statement of Mr. Heard appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Heard.    Ms. Mackin, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Mackin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Mackin. Thank you, Mr. Chairman. Good afternoon, Ranking Member Kuster and members of the subcommittee. I appreciate the opportunity to discuss our recent report on VA's use of interagency agreements and Federally Funded Research and Development Centers, or FFRDCs.    Interagency agreements can take different forms, but as was mentioned, our focus was on those where VA pays a fee to another agency to award a contract on its behalf. FFRDCs are not-for-profit entities that have a long-term special relationship with government agencies. By their very nature, all work to FFRDCs is awarded without competition.    Interagency agreements and FFRDCs account for a relatively small slice of VA's overall procurement spending, a little over $2 billion from fiscal years 2012 to 2014. But a key component for both is oversight and accountability as to where VA's dollars are going. Each also has potential for certain risks that need to be properly managed.    Our key findings with regard to interagency agreements were that, first, the full extent of VA's use of these agreements is unknown. We analyzed data from the Department's Electronic Contract Management System and found $1.7 billion reported from 2012 to 2014. But when we did more digging into VA's accounting system, we found another $600 million to $900 million in potential interagency agreements.    Second, we reviewed 21 interagency agreements in more detail and found that almost half were missing required documentation. In some cases, this included VA's reasons for using the agreement instead of another contracting mechanism. Because VA is paying a fee when it uses interagency agreements, the lack of complete documentation places VA at risk of paying these fees without proper oversight.    And now regarding FFRDCs. Since 2008, VA has cosponsored an FFRDC under the MITRE Corporation. It also has a large task order with a second MITRE FFRDC. In total, these have a potential value of over $400 million.    We found that VA has processes in place to review and oversee its FFRDC use, but we also found some areas where documentation was not as comprehensive as it could be. I'll mention two key areas.    First, we reviewed 10 task orders and found that in all 10 cases VA accepted MITRE's exact proposed price. In six of these cases, the contractor's proposal was higher than VA's own cost estimate, but we found no evidence of price negotiation, specifically to lower the number of labor hours or change the mix of the contractor's staff.    Further, the contract files did not reflect the factors VA considered in determining that requirements were appropriate for an FFRDC. There was no record, for example, of decisions to carve out certain requirements that could be competed among other contractors. VA officials said these discussions do happen, but they weren't documented in the files we reviewed.    A final issue I will note is that while VA's Technology Acquisition Center, or TAC, is responsible for overseeing all of VA's FFRDC use, we found this was not happening in practice. We identified four non-MITRE FFRDCs that TAC was not aware of. This means that VA organizations were obligating funds to these other FFRDCs without the required review and oversight.    We made five recommendations to VA to address the issues we found, and as Mr. Heard mentioned, the Department concurred with all of them. We will, as usual, take steps to identify the specific actions the Department is taking.    This concludes my prepared remarks. Thank you.    [The prepared statement of Ms. Mackin appears in the Appendix]</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
     <t xml:space="preserve">    Mr. Coffman. Ms. Foster.</t>
   </si>
   <si>
-    <t>Foster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Foster. Chairman, we use a multidisciplinary team called an acquisition integrated product team, whose responsibility is to vet the requirements that come forward. The team ensures that the requirements fall within MITRE's core competencies, the five core competencies outlined in the GAO report, but they also ensure that the work requires a special relationship of an FFRDC. I'd like to think that this is a best practice because it's part of the overall governance structure which GAO had actually recommended that all of the FFRDCs go through.</t>
   </si>
   <si>
@@ -184,9 +169,6 @@
     <t>412429</t>
   </si>
   <si>
-    <t>Tim Huelskamp</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huelskamp. Thank you, Mr. Chairman. And I must note and report, for my 8-year-old this is probably the highlight of his summer to be in your subcommittee, Mr. Chairman. And he was going to take notes, but it's all being recorded. But thank you for calling this hearing. He is still awake, I'll report that. We haven't been here long enough.    But thank you for coming here. And I think we're hearing here what we hear in so many other hearings, is it's either the lack of data or lack of belief in the data. And on this contracting issue, it's probably some of both as we look at that, Mr. Chairman.    But one response, I think that was from Mr. Heard, and I wanted to repeat that. You mentioned something about the CFO at the VA was going to help us figure this problem out. Could you restate that and explain your answer there?</t>
   </si>
   <si>
@@ -253,9 +235,6 @@
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Huelskamp.    Mr. O'Rourke, you're now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Mr. Heard, I appreciated you beginning by saying that you concur with the findings and the recommendations, and you then said that you're working on policy and training programs to come into compliance. How long before you will be where you should be and where the GAO can come back to us and say clean bill of health for the VA on these issues that we uncovered?</t>
   </si>
   <si>
@@ -349,9 +328,6 @@
     <t>412538</t>
   </si>
   <si>
-    <t>Jackie Walorski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Walorski. Thank you, Mr. Chairman.    I just am sitting here thinking and kind of associating myself with the comments from our ranking member about the fact that we're going to be sitting in a hearing tomorrow with the VA Secretary, and I think to much of our surprise, asking the question and listening to the testimony as to how in the world we are $2.5 billion, $3 billion off all of a sudden in the context of the VA. And then we sit here today and we're asking more specific questions again based on a GAO report.    And it just surprises me, Mr. Chairman, that we sit here time and time again and we hear it, and it doesn't seem to matter which particular entity of the VA is sitting here, but the answers that we even get today about these interagency contractual agreements on missing data, lack of support, managerial problem, missing documents, no training, and all these things continue to persist.    And I have got to think that when the American people, at least the folks in my district in Indiana, listen to these hearings--and they really do, Americans are at the table with their ears on because they're fighting for veterans just like we are--I think they're so confused and distressed when we hear the kind of answers coming that we're hearing today.    And it's usually always at the impetus of a GAO report. If the GAO hadn't looked into these situations they would never rise to the occasion to even be talking about this at a hearing. And I think it just adds to the anxiety the country has, the Nation has, as we're all together fighting for veterans, and it seems like we're fighting the very entity that was created to help veterans, and an entity that seems to have lost itself in questions that literally no answers can be provided anymore, it's just too big of a mess.    And so with that--and I think it's distressing as well, because our fellow Americans have made it very clear that they are standing with this bipartisan committee fighting for veterans and trying to help do everything we can legislatively. But I think we've also found out that legislative fixes aren't going to save the VA. It's going to be the people inside the VA that are going to save the VA.    And I guess with that I would ask--I think, Ms. Foster, you were the one talking about the issue with the MITRE proposal, but the GAO found that you always accepted--always accepted--MITRE's price proposal, even when it was higher than your own cost estimate. Why is that?</t>
   </si>
   <si>
@@ -364,9 +340,6 @@
     <t xml:space="preserve">    Ms. Foster. Ma'am, I'd defer that to Mr. Orso. He's the business office that handles that.</t>
   </si>
   <si>
-    <t>Orso</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Orso. Thank you, ma'am.    We have a very robust governance process that looks at the requirements, the out-year requirements. And then as the projects are actually accomplished within MITRE, the process that we use ensures that they have a plan to scope--down scope or down scale their support to any given program. And that's built in at the AIPT level and all of the other activities that we're placing on contract with the vendor.</t>
   </si>
   <si>
@@ -391,9 +364,6 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. I'm good, Mr. Chairman.</t>
   </si>
   <si>
@@ -403,9 +373,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman.    Mr. Heard, in the past the VA has transferred millions of dollars to OPM under an interagency agreement where the money sat unobligated for more than 2 years. What controls have you put in place to ensure this doesn't happen again?    And this is a very timely question because we're going to have the Secretary come in tomorrow, I believe it's the Secretary, and say that you need billions of dollars more. And the controls for accounting for where the money goes and how it's spent seem to be lacking.    So how would you answer that question? What controls have you put in place to ensure that this doesn't happen again with these types of contracts?</t>
   </si>
   <si>
@@ -491,9 +458,6 @@
   </si>
   <si>
     <t>412310</t>
-  </si>
-  <si>
-    <t>David P. Roe</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Roe. Thank you, Mr. Chairman.    I am sorry I had to leave. I had to go to the House floor to testify on a VA bill. So I missed some of the testimony. And I am going to back up a little bit and just ask a few questions.    So someone can walk me through, how is the FFRDC, how and why and when is it used? It's as simple as that? I want to ask that question first.</t>
@@ -1060,11 +1024,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1084,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1112,11 +1072,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1138,11 +1096,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1162,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1190,11 +1144,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1214,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1242,11 +1192,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1266,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1294,11 +1240,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1318,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1346,11 +1288,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1370,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1398,11 +1336,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1422,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1450,11 +1384,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1474,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1502,11 +1432,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1526,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1554,11 +1480,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1578,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1606,11 +1528,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1630,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1656,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1682,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1708,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1734,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1760,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1786,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1812,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1838,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1864,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1890,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1916,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1942,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1970,11 +1864,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1994,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2020,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2046,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2072,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2098,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>55</v>
-      </c>
-      <c r="G42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2124,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2150,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2176,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2202,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2228,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2254,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2280,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2306,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2332,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2358,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2384,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2410,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2436,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2462,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2488,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2514,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2542,11 +2392,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2566,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2592,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2618,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2644,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2670,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2696,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2722,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
         <v>79</v>
-      </c>
-      <c r="H66" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2748,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2774,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2800,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2826,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2852,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2878,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2904,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2930,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2956,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2982,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3008,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3034,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3060,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3086,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3112,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3138,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3164,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3190,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3216,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3242,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3268,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3294,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3322,11 +3112,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3346,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
-      </c>
-      <c r="G90" t="s">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3372,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3398,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>110</v>
-      </c>
-      <c r="G92" t="s">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3424,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3450,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3476,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>110</v>
-      </c>
-      <c r="G95" t="s">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3502,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3528,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>110</v>
-      </c>
-      <c r="G97" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
         <v>111</v>
-      </c>
-      <c r="H97" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3554,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3580,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>110</v>
-      </c>
-      <c r="G99" t="s">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3608,11 +3376,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3632,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
-      </c>
-      <c r="G101" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3660,11 +3424,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3684,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
-      </c>
-      <c r="G103" t="s">
-        <v>129</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3710,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3736,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
-      </c>
-      <c r="G105" t="s">
-        <v>129</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3762,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3788,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3814,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3840,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>128</v>
-      </c>
-      <c r="G109" t="s">
-        <v>129</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3866,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3892,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>128</v>
-      </c>
-      <c r="G111" t="s">
-        <v>129</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3920,11 +3664,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3944,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3972,11 +3712,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3996,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4022,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4050,11 +3784,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4074,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4102,11 +3832,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4126,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4152,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4178,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4204,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4230,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4256,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4282,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4308,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4334,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4360,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4388,11 +4096,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4412,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>158</v>
-      </c>
-      <c r="G131" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4438,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4464,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>158</v>
-      </c>
-      <c r="G133" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4490,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4516,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4542,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>158</v>
-      </c>
-      <c r="G136" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4568,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4594,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>158</v>
-      </c>
-      <c r="G138" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4620,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4646,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
-      </c>
-      <c r="G140" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4672,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4698,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>158</v>
-      </c>
-      <c r="G142" t="s">
+        <v>147</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
         <v>159</v>
-      </c>
-      <c r="H142" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4724,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4750,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>158</v>
-      </c>
-      <c r="G144" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4776,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4802,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>158</v>
-      </c>
-      <c r="G146" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4828,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4854,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>158</v>
-      </c>
-      <c r="G148" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4880,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4906,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>158</v>
-      </c>
-      <c r="G150" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4932,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4958,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>158</v>
-      </c>
-      <c r="G152" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4984,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5010,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>158</v>
-      </c>
-      <c r="G154" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5036,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5062,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>158</v>
-      </c>
-      <c r="G156" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5088,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5114,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>158</v>
-      </c>
-      <c r="G158" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5140,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5166,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>158</v>
-      </c>
-      <c r="G160" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5192,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5218,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>158</v>
-      </c>
-      <c r="G162" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5244,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5270,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5296,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>158</v>
-      </c>
-      <c r="G165" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5322,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5348,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>158</v>
-      </c>
-      <c r="G167" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5374,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5400,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>158</v>
-      </c>
-      <c r="G169" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5426,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5452,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>158</v>
-      </c>
-      <c r="G171" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5480,11 +5104,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5504,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5530,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5556,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5582,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5608,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5634,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5660,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5686,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5712,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5738,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5764,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5790,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>19</v>
-      </c>
-      <c r="G184" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5816,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5844,11 +5440,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5870,11 +5464,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98688.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98688.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman. Good afternoon. This hearing will come to order.    I want to welcome everyone to today's hearing entitled ``Lack of Oversight of Interagency Agreements--VA Procurement Failures Continued.'' This hearing will examine serious problems with VA's use of interagency agreements to procure certain services and will also focus on Federally Funded Research and Development Centers, which we will refer to as FFRDCs for ease of reference.    Interagency agreements, in this case where other agencies may contract or perform services for VA, can be a proficient procurement method. However, these acquisitions may pose a variety of risks in part because of the need for stronger internal controls and clear definitions of agency roles and responsibilities. As we see today, and we have seen from VA for years, internal controls, management, and oversight are tremendous problems for VA.    Additionally, VA has relationships with FFRDCs, privately owned but government-funded entities that have long-term relationships with Federal agencies intended to meet special long-term research or development needs that cannot be met as effectively by existing in-house or contractor resources. FFRDCs are granted special access beyond that which is common for normal contractual relationships to government and supplier data.    Following an investigation of these issues begun last Congress, I asked GAO to look into VA's oversight and management of these relationships. Unfortunately, what GAO found is typical regarding data reliability within VA.    For instance, VA cannot account for the extent to which it utilized interagency agreements for fiscal year 2012 through fiscal year 2014. For this period, VA had data showing that it obligated at least $1.7 billion for this period, when in fact GAO found that this amount was actually between $2.6 billion and $2.9 billion, amounting to a $600 million to $900 million inconsistency.    Further, half of the interagency agreements GAO reviewed did not contain necessary documentation, which is another of the many instances where VA's poor oversight and management of its procurement processes leaves the Department open to rampant waste, potential fraud, and certain abuse.    Similarly, VA obligated $260 million in this same fiscal year 2012 through fiscal year 2014 period to FFRDCs.    One downfall with FFRDCs is that they are noncompetitive, as is evidenced by the fact that nearly all of VA's relationships with them are with those operated by one corporation.    Additional, shortfalls GAO found with VA's data include a failure to centrally track some contract actions, limited documentation of pre-award reviews, and in some cases contract files that did not indicate why VA determined a contract price was acceptable.    This hearing will highlight yet another set of contracting problems within VA, where hundreds of millions, if not billions of dollars are unaccounted for. In a time where VA has come back to Congress to ask for an additional $3 billion because it has run out of money it should have to serve veterans, I consider this another grave failure.    I look forward to the discussions we will have here today on this important issue.    With that, I now yield to Ranking Member Kuster for any opening remarks she may have.    [The prepared statement of Chairman Mike Coffman appears in the Appendix]</t>
   </si>
   <si>
     <t>412557</t>
   </si>
   <si>
+    <t>Kuster</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you, Chairman Coffman, for holding this hearing.    And thank you to our witnesses for joining us here today.    We are here yet again to address VA's longstanding procurement problems. Today it is interagency agreements and Federally Funded Research and Development Centers, the FFRDCs that the chair has spoken about, and the VA's inability to oversee and properly manage these agreements and contracts.    VA has known from at least 2009, when the first IG report came out, that these interagency agreements were not being properly documented in VA's contract management system. In 2014, a second IG report found VA has the same problem, incomplete and inaccurate documentation.    The first report should have been a wake-up call. The second report was certainly a distress signal. And GAO's most recent report shows that little has been done to address these issues, and in some cases unclear guidance has caused greater confusion and contributed to additional reporting inaccuracies. VA's procurement organization and business practices need serious reform now.    Tomorrow our committee will address VHA's almost $3 billion budget shortfall. Like many of the other problems VA faces, and like most of the issues we address here in this committee, this is the direct result of VA's inability to accurately report and use data.    If VA had accurate data, it wouldn't be here today explaining why it doesn't have clear processes in place to ensure it is accurately managing its interagency agreements. If VA had accurate data, we wouldn't be here having questioning why MITRE Corporation has been awarded contracts instead of commercial contractors. And if VA had accurate data, it would be able to plan and request a budget that would meet the needs of our veterans and we wouldn't be holding a hearing tomorrow on the budget shortfall.    I'd like to know from our VA witnesses why it is so difficult for VA to accurately manage its contracts and agreements. VA has promised us a solution earlier this summer to manage procurement and ensure accurate data reporting, and I'd like to know when we will have this solution.    Finally, I'd like to know why VA has not used the tools it has at its disposal to hold employees accountable for not accurately documenting these transactions or acting to address these numerous IG and GAO reports. I'm more convinced than ever that major reforms are needed across VA to accurately manage procurement. VA needs an agency-wide transformation to bring its business practices into the 21st century to meet the needs of our well-deserving veterans.    Thank you, Mr. Chairman, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -70,12 +85,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Heard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Heard. Good afternoon, Chairman Coffman, Ranking Member Kuster, and members of the subcommittee. I appreciate the opportunity to discuss the Department's use of interagency agreements and Federally Funded Research and Development Centers, FFRDCs. I'm joined today by Michele Foster, Associate Executive Director, Technology Acquisition Center, and David Orso, Executive Director, Office of Policy and Planning, Enterprise Program Management Office.    The Department of Veterans Affairs relies on both internal and external contract vehicles to meet its mission of providing the very best goods and services for our Nation's veterans. As the recently published GAO report explains, the VA will utilize interagency agreements or Federally Funded Research and Development Center support when appropriate to meet these aforementioned needs.    Interagency agreements for the purpose of the GAO review centered around assisted acquisitions. Assisted acquisitions are those where an agency requests the acquisition services of another to satisfy its schedule, performance, and delivery requirements in a manner that is cost effective.    FFRDCs, the second focus of the GAO review, are independent nonprofit entities sponsored and funded primarily by the United States government to meet specific long-term technical needs that cannot appropriately be met by any for-profit commercial organization. FFRDCs are managed by a nonprofit parent organization in accordance with statute and regulation.    The long-term strategic relationship between the government and an FFRDC is encouraged to enable the FFRDC to develop and maintain in-depth knowledge of its sponsored programs and operations. VA cosponsors an FFRDC with the Internal Revenue Service through MITRE Corporation, which has five core competencies: Strategic management, procurement support and evaluations, program and project management, technical management, and independent evaluation and audit.    To ensure proper management and oversight of our use of the FFRDC, VA established an enterprise-wide executive-level governance structure. The FFRDC Governance Plan provides guidelines and procedures for ensuring compliance with the FAR and applies to all administrations and staff offices within the VA that seek to use the services of an FFRDC.    As it relates to the GAO report recommendations, five distinct areas were highlighted for VA's consideration. Specifically, GAO recommended VA revise its policies to improve the recording of interagency transaction data and to ensure interagency training reaches the full range of program and contracting officials. We concur on both of these recommendations and are currently in the process of revising our current financial and procurement policy to more clearly address recording procedures, as well as developing a robust training program designed to mitigate gaps in compliance with interagency procurement policy.    In addressing FFRDCs, GAO substantially validated the VA's administrative processes and overall utilization of MITRE Corporation. However, they did present three recommendations that they believe would provide consistency throughout VA. GAO recommended VA develop a strategy to ensure Department-wide adherence to the Governance Plan, improving support file documentation, and reassessing its approach towards travel costs. We concur on all three recommendations.    As previously stated, VA concurs with the recommendation offered by GAO. We've already begun to execute corrective action and believe that they will sufficiently address the GAO's suggestions.    Mr. Chairman and members of the committee, this concludes my oral statement. Thank you for the opportunity to testify before the committee. My colleagues and I would be happy to respond to any questions that you may have.    [The prepared statement of Mr. Heard appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Heard.    Ms. Mackin, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Mackin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Mackin. Thank you, Mr. Chairman. Good afternoon, Ranking Member Kuster and members of the subcommittee. I appreciate the opportunity to discuss our recent report on VA's use of interagency agreements and Federally Funded Research and Development Centers, or FFRDCs.    Interagency agreements can take different forms, but as was mentioned, our focus was on those where VA pays a fee to another agency to award a contract on its behalf. FFRDCs are not-for-profit entities that have a long-term special relationship with government agencies. By their very nature, all work to FFRDCs is awarded without competition.    Interagency agreements and FFRDCs account for a relatively small slice of VA's overall procurement spending, a little over $2 billion from fiscal years 2012 to 2014. But a key component for both is oversight and accountability as to where VA's dollars are going. Each also has potential for certain risks that need to be properly managed.    Our key findings with regard to interagency agreements were that, first, the full extent of VA's use of these agreements is unknown. We analyzed data from the Department's Electronic Contract Management System and found $1.7 billion reported from 2012 to 2014. But when we did more digging into VA's accounting system, we found another $600 million to $900 million in potential interagency agreements.    Second, we reviewed 21 interagency agreements in more detail and found that almost half were missing required documentation. In some cases, this included VA's reasons for using the agreement instead of another contracting mechanism. Because VA is paying a fee when it uses interagency agreements, the lack of complete documentation places VA at risk of paying these fees without proper oversight.    And now regarding FFRDCs. Since 2008, VA has cosponsored an FFRDC under the MITRE Corporation. It also has a large task order with a second MITRE FFRDC. In total, these have a potential value of over $400 million.    We found that VA has processes in place to review and oversee its FFRDC use, but we also found some areas where documentation was not as comprehensive as it could be. I'll mention two key areas.    First, we reviewed 10 task orders and found that in all 10 cases VA accepted MITRE's exact proposed price. In six of these cases, the contractor's proposal was higher than VA's own cost estimate, but we found no evidence of price negotiation, specifically to lower the number of labor hours or change the mix of the contractor's staff.    Further, the contract files did not reflect the factors VA considered in determining that requirements were appropriate for an FFRDC. There was no record, for example, of decisions to carve out certain requirements that could be competed among other contractors. VA officials said these discussions do happen, but they weren't documented in the files we reviewed.    A final issue I will note is that while VA's Technology Acquisition Center, or TAC, is responsible for overseeing all of VA's FFRDC use, we found this was not happening in practice. We identified four non-MITRE FFRDCs that TAC was not aware of. This means that VA organizations were obligating funds to these other FFRDCs without the required review and oversight.    We made five recommendations to VA to address the issues we found, and as Mr. Heard mentioned, the Department concurred with all of them. We will, as usual, take steps to identify the specific actions the Department is taking.    This concludes my prepared remarks. Thank you.    [The prepared statement of Ms. Mackin appears in the Appendix]</t>
   </si>
   <si>
@@ -106,6 +127,9 @@
     <t xml:space="preserve">    Mr. Coffman. Ms. Foster.</t>
   </si>
   <si>
+    <t>Foster</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Foster. Chairman, we use a multidisciplinary team called an acquisition integrated product team, whose responsibility is to vet the requirements that come forward. The team ensures that the requirements fall within MITRE's core competencies, the five core competencies outlined in the GAO report, but they also ensure that the work requires a special relationship of an FFRDC. I'd like to think that this is a best practice because it's part of the overall governance structure which GAO had actually recommended that all of the FFRDCs go through.</t>
   </si>
   <si>
@@ -169,6 +193,12 @@
     <t>412429</t>
   </si>
   <si>
+    <t>Huelskamp</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Huelskamp. Thank you, Mr. Chairman. And I must note and report, for my 8-year-old this is probably the highlight of his summer to be in your subcommittee, Mr. Chairman. And he was going to take notes, but it's all being recorded. But thank you for calling this hearing. He is still awake, I'll report that. We haven't been here long enough.    But thank you for coming here. And I think we're hearing here what we hear in so many other hearings, is it's either the lack of data or lack of belief in the data. And on this contracting issue, it's probably some of both as we look at that, Mr. Chairman.    But one response, I think that was from Mr. Heard, and I wanted to repeat that. You mentioned something about the CFO at the VA was going to help us figure this problem out. Could you restate that and explain your answer there?</t>
   </si>
   <si>
@@ -235,6 +265,9 @@
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Huelskamp.    Mr. O'Rourke, you're now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Mr. Heard, I appreciated you beginning by saying that you concur with the findings and the recommendations, and you then said that you're working on policy and training programs to come into compliance. How long before you will be where you should be and where the GAO can come back to us and say clean bill of health for the VA on these issues that we uncovered?</t>
   </si>
   <si>
@@ -328,6 +361,12 @@
     <t>412538</t>
   </si>
   <si>
+    <t>Walorski</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Walorski. Thank you, Mr. Chairman.    I just am sitting here thinking and kind of associating myself with the comments from our ranking member about the fact that we're going to be sitting in a hearing tomorrow with the VA Secretary, and I think to much of our surprise, asking the question and listening to the testimony as to how in the world we are $2.5 billion, $3 billion off all of a sudden in the context of the VA. And then we sit here today and we're asking more specific questions again based on a GAO report.    And it just surprises me, Mr. Chairman, that we sit here time and time again and we hear it, and it doesn't seem to matter which particular entity of the VA is sitting here, but the answers that we even get today about these interagency contractual agreements on missing data, lack of support, managerial problem, missing documents, no training, and all these things continue to persist.    And I have got to think that when the American people, at least the folks in my district in Indiana, listen to these hearings--and they really do, Americans are at the table with their ears on because they're fighting for veterans just like we are--I think they're so confused and distressed when we hear the kind of answers coming that we're hearing today.    And it's usually always at the impetus of a GAO report. If the GAO hadn't looked into these situations they would never rise to the occasion to even be talking about this at a hearing. And I think it just adds to the anxiety the country has, the Nation has, as we're all together fighting for veterans, and it seems like we're fighting the very entity that was created to help veterans, and an entity that seems to have lost itself in questions that literally no answers can be provided anymore, it's just too big of a mess.    And so with that--and I think it's distressing as well, because our fellow Americans have made it very clear that they are standing with this bipartisan committee fighting for veterans and trying to help do everything we can legislatively. But I think we've also found out that legislative fixes aren't going to save the VA. It's going to be the people inside the VA that are going to save the VA.    And I guess with that I would ask--I think, Ms. Foster, you were the one talking about the issue with the MITRE proposal, but the GAO found that you always accepted--always accepted--MITRE's price proposal, even when it was higher than your own cost estimate. Why is that?</t>
   </si>
   <si>
@@ -340,6 +379,9 @@
     <t xml:space="preserve">    Ms. Foster. Ma'am, I'd defer that to Mr. Orso. He's the business office that handles that.</t>
   </si>
   <si>
+    <t>Orso</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Orso. Thank you, ma'am.    We have a very robust governance process that looks at the requirements, the out-year requirements. And then as the projects are actually accomplished within MITRE, the process that we use ensures that they have a plan to scope--down scope or down scale their support to any given program. And that's built in at the AIPT level and all of the other activities that we're placing on contract with the vendor.</t>
   </si>
   <si>
@@ -364,6 +406,12 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. I'm good, Mr. Chairman.</t>
   </si>
   <si>
@@ -373,6 +421,12 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman.    Mr. Heard, in the past the VA has transferred millions of dollars to OPM under an interagency agreement where the money sat unobligated for more than 2 years. What controls have you put in place to ensure this doesn't happen again?    And this is a very timely question because we're going to have the Secretary come in tomorrow, I believe it's the Secretary, and say that you need billions of dollars more. And the controls for accounting for where the money goes and how it's spent seem to be lacking.    So how would you answer that question? What controls have you put in place to ensure that this doesn't happen again with these types of contracts?</t>
   </si>
   <si>
@@ -458,6 +512,12 @@
   </si>
   <si>
     <t>412310</t>
+  </si>
+  <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Roe. Thank you, Mr. Chairman.    I am sorry I had to leave. I had to go to the House floor to testify on a VA bill. So I missed some of the testimony. And I am going to back up a little bit and just ask a few questions.    So someone can walk me through, how is the FFRDC, how and why and when is it used? It's as simple as that? I want to ask that question first.</t>
@@ -974,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -982,7 +1042,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,4469 +1064,5186 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G51" t="s">
+        <v>59</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G53" t="s">
+        <v>59</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G55" t="s">
+        <v>59</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G58" t="s">
+        <v>59</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>83</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>83</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>83</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>83</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>83</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G90" t="s">
+        <v>115</v>
+      </c>
       <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G91" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G92" t="s">
+        <v>115</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>121</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G95" t="s">
+        <v>115</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>121</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G97" t="s">
+        <v>115</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>121</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G99" t="s">
+        <v>115</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>115</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G101" t="s">
+        <v>130</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G103" t="s">
+        <v>135</v>
+      </c>
       <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G105" t="s">
+        <v>135</v>
+      </c>
       <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G107" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>121</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>118</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G109" t="s">
+        <v>135</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>118</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G111" t="s">
+        <v>135</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G113" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G116" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G118" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
       <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G121" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
       <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G123" t="s">
+        <v>37</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G124" t="s">
+        <v>121</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
       <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G126" t="s">
+        <v>121</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
       <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>121</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
       <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>147</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G131" t="s">
+        <v>166</v>
+      </c>
       <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>147</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G133" t="s">
+        <v>166</v>
+      </c>
       <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>23</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G135" t="s">
+        <v>37</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>147</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G136" t="s">
+        <v>166</v>
+      </c>
       <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G137" t="s">
+        <v>37</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G138" t="s">
+        <v>166</v>
+      </c>
       <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
+        <v>37</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>147</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G140" t="s">
+        <v>166</v>
+      </c>
       <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G141" t="s">
+        <v>23</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>147</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G142" t="s">
+        <v>166</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G143" t="s">
+        <v>37</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>147</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G144" t="s">
+        <v>166</v>
+      </c>
       <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
+        <v>37</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>147</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G146" t="s">
+        <v>166</v>
+      </c>
       <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
+        <v>23</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>147</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G148" t="s">
+        <v>166</v>
+      </c>
       <c r="H148" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G149" t="s">
+        <v>23</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>147</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G150" t="s">
+        <v>166</v>
+      </c>
       <c r="H150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G151" t="s">
+        <v>23</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>147</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G152" t="s">
+        <v>166</v>
+      </c>
       <c r="H152" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G153" t="s">
+        <v>23</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>147</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G154" t="s">
+        <v>166</v>
+      </c>
       <c r="H154" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G155" t="s">
+        <v>23</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>147</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G156" t="s">
+        <v>166</v>
+      </c>
       <c r="H156" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G157" t="s">
+        <v>121</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>147</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G158" t="s">
+        <v>166</v>
+      </c>
       <c r="H158" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G159" t="s">
+        <v>121</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>147</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G160" t="s">
+        <v>166</v>
+      </c>
       <c r="H160" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I160" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G161" t="s">
+        <v>121</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>147</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G162" t="s">
+        <v>166</v>
+      </c>
       <c r="H162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G163" t="s">
+        <v>121</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G164" t="s">
+        <v>37</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>147</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G165" t="s">
+        <v>166</v>
+      </c>
       <c r="H165" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I165" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G166" t="s">
+        <v>37</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>147</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G167" t="s">
+        <v>166</v>
+      </c>
       <c r="H167" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I167" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G168" t="s">
+        <v>37</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>147</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G169" t="s">
+        <v>166</v>
+      </c>
       <c r="H169" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I169" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>37</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>147</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G171" t="s">
+        <v>166</v>
+      </c>
       <c r="H171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I171" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
       <c r="H172" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>83</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>23</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>83</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>23</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>83</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G178" t="s">
+        <v>23</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>83</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>23</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G181" t="s">
+        <v>83</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G182" t="s">
+        <v>23</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G183" t="s">
+        <v>83</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G184" t="s">
+        <v>23</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G185" t="s">
+        <v>83</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
       <c r="H186" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
       <c r="H187" t="s">
-        <v>203</v>
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98688.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98688.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Coffman</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412557</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Kuster</t>
   </si>
   <si>
@@ -191,6 +200,9 @@
   </si>
   <si>
     <t>412429</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Huelskamp</t>
@@ -1034,7 +1046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,7 +1054,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,5183 +1079,5528 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H55" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G58" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H58" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>83</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>83</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>83</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>87</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>83</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>83</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>87</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>83</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>83</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>87</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>83</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>87</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>83</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>87</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>26</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>83</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>87</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>83</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>87</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>83</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>87</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>83</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>87</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G90" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>37</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G92" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>37</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>121</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>125</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G95" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>121</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>125</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G97" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>121</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>125</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G99" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="H99" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G101" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H101" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G103" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="H103" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>23</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G105" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>37</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>40</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>121</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>125</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G109" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>29</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G111" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I111" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>26</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>23</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>37</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>40</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s">
-        <v>26</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I120" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>37</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>40</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I122" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>37</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>40</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s">
-        <v>121</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>125</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I125" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>121</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>125</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I127" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>121</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>125</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I129" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G131" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I131" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>23</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G133" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H133" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I133" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>23</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>26</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>37</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>40</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G136" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I136" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>37</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>40</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G138" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I138" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J138" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>37</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>40</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G140" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H140" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I140" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J140" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>23</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G142" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J142" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>37</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>40</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G144" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H144" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I144" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J144" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>37</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>40</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G146" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I146" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J146" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>23</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>26</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G148" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H148" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I148" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J148" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>23</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>26</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G150" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H150" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I150" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J150" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>26</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G152" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H152" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I152" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J152" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" t="s">
-        <v>23</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G154" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H154" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I154" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J154" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" t="s">
-        <v>23</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>26</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G156" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H156" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I156" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" t="s">
-        <v>121</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>125</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G158" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H158" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I158" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s">
-        <v>121</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>125</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G160" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H160" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I160" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J160" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s">
-        <v>121</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>125</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G162" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H162" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I162" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J162" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" t="s">
-        <v>121</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>125</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" t="s">
-        <v>37</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>40</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G165" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H165" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I165" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J165" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
-      </c>
-      <c r="G166" t="s">
-        <v>37</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>40</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G167" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H167" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I167" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J167" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" t="s">
-        <v>37</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>40</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G169" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H169" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I169" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J169" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" t="s">
-        <v>37</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>40</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G171" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H171" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I171" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J171" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I172" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J172" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" t="s">
-        <v>83</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>87</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" t="s">
-        <v>23</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>26</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s">
-        <v>83</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>87</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" t="s">
-        <v>23</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>26</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>22</v>
-      </c>
-      <c r="G177" t="s">
-        <v>83</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>87</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" t="s">
-        <v>23</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>26</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
-        <v>83</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>87</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" t="s">
-        <v>23</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>26</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s">
-        <v>83</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>87</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>22</v>
-      </c>
-      <c r="G182" t="s">
-        <v>23</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>26</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s">
-        <v>83</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>87</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>22</v>
-      </c>
-      <c r="G184" t="s">
-        <v>23</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>26</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s">
-        <v>83</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>87</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I186" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J186" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>223</v>
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
